--- a/entrada/Sevilla/SectoresNucleos_Sevilla.xlsx
+++ b/entrada/Sevilla/SectoresNucleos_Sevilla.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aperillo\Documents\ABACO\Datos de entorno\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tinot\eclipse-workspace\Proyecto-Salomon\entrada\Sevilla\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA4B63F-3BAB-45FA-B67B-62137D5AD69B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SectoresNucleos_Barcelona" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t>Tipo Sector</t>
   </si>
@@ -85,15 +86,12 @@
   </si>
   <si>
     <t>Núcleos Sevilla</t>
-  </si>
-  <si>
-    <t>Sevilla Ruta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -896,33 +894,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -933,7 +933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -944,7 +944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -955,7 +955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -966,7 +966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -977,7 +977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -988,7 +988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -999,7 +999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
